--- a/HW4/Lines to Seconds stats.xlsx
+++ b/HW4/Lines to Seconds stats.xlsx
@@ -197,7 +197,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1112</c:v>
+                  <c:v>1592</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>897</c:v>
@@ -230,7 +230,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>123</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>237</c:v>
@@ -296,7 +296,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1112</c:v>
+                  <c:v>1592</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>897</c:v>
@@ -329,28 +329,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>168.61398658135971</c:v>
+                  <c:v>205.81522640233038</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>140.99187240585837</c:v>
+                  <c:v>131.95595884158342</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67.632676153712936</c:v>
+                  <c:v>71.274459881602851</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.944439747269378</c:v>
+                  <c:v>42.580931476708358</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>145.7454455430377</c:v>
+                  <c:v>135.88803495632823</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65.191652110296531</c:v>
+                  <c:v>69.255285660517686</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51.18788259806562</c:v>
+                  <c:v>57.671601971134351</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>83.692044860399761</c:v>
+                  <c:v>84.558500809794751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1394,7 +1394,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1415,34 +1415,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1112</v>
+        <v>1592</v>
       </c>
       <c r="C2">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="D2">
         <f>B2*C2</f>
-        <v>136776</v>
+        <v>264272</v>
       </c>
       <c r="E2">
         <f>B2^2</f>
-        <v>1236544</v>
+        <v>2534464</v>
       </c>
       <c r="F2">
         <f>C2^2</f>
-        <v>15129</v>
+        <v>27556</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G7" si="0">G3</f>
-        <v>25.749842566673678</v>
+        <v>36.62968114087839</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H7" si="1">H3</f>
-        <v>0.12847494965349465</v>
+        <v>0.10627232742553516</v>
       </c>
       <c r="I2">
         <f>G2+H2*B2</f>
-        <v>168.61398658135971</v>
+        <v>205.81522640233038</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1469,15 +1469,15 @@
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>25.749842566673678</v>
+        <v>36.62968114087839</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>0.12847494965349465</v>
+        <v>0.10627232742553516</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I9" si="5">G3+H3*B3</f>
-        <v>140.99187240585837</v>
+        <v>131.95595884158342</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1504,15 +1504,15 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>25.749842566673678</v>
+        <v>36.62968114087839</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>0.12847494965349465</v>
+        <v>0.10627232742553516</v>
       </c>
       <c r="I4">
         <f t="shared" si="5"/>
-        <v>67.632676153712936</v>
+        <v>71.274459881602851</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1539,15 +1539,15 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>25.749842566673678</v>
+        <v>36.62968114087839</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>0.12847494965349465</v>
+        <v>0.10627232742553516</v>
       </c>
       <c r="I5">
         <f t="shared" si="5"/>
-        <v>32.944439747269378</v>
+        <v>42.580931476708358</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1574,15 +1574,15 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>25.749842566673678</v>
+        <v>36.62968114087839</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>0.12847494965349465</v>
+        <v>0.10627232742553516</v>
       </c>
       <c r="I6">
         <f t="shared" si="5"/>
-        <v>145.7454455430377</v>
+        <v>135.88803495632823</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1609,15 +1609,15 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>25.749842566673678</v>
+        <v>36.62968114087839</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>0.12847494965349465</v>
+        <v>0.10627232742553516</v>
       </c>
       <c r="I7">
         <f t="shared" si="5"/>
-        <v>65.191652110296531</v>
+        <v>69.255285660517686</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1644,15 +1644,15 @@
       </c>
       <c r="G8">
         <f>G9</f>
-        <v>25.749842566673678</v>
+        <v>36.62968114087839</v>
       </c>
       <c r="H8">
         <f>H9</f>
-        <v>0.12847494965349465</v>
+        <v>0.10627232742553516</v>
       </c>
       <c r="I8">
         <f t="shared" si="5"/>
-        <v>51.18788259806562</v>
+        <v>57.671601971134351</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1679,15 +1679,15 @@
       </c>
       <c r="G9">
         <f>C10/8-H9*B10/8</f>
-        <v>25.749842566673678</v>
+        <v>36.62968114087839</v>
       </c>
       <c r="H9">
         <f>(8*D10-B10*C10)/(8*E10-B10^2)</f>
-        <v>0.12847494965349465</v>
+        <v>0.10627232742553516</v>
       </c>
       <c r="I9">
         <f t="shared" si="5"/>
-        <v>83.692044860399761</v>
+        <v>84.558500809794751</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1696,23 +1696,23 @@
       </c>
       <c r="B10">
         <f>SUM(B2:B9)</f>
-        <v>4281</v>
+        <v>4761</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:F10" si="6">SUM(C2:C9)</f>
-        <v>756</v>
+        <v>799</v>
       </c>
       <c r="D10">
         <f t="shared" si="6"/>
-        <v>541882</v>
+        <v>669378</v>
       </c>
       <c r="E10">
         <f t="shared" si="6"/>
-        <v>3359775</v>
+        <v>4657695</v>
       </c>
       <c r="F10">
         <f t="shared" si="6"/>
-        <v>103556</v>
+        <v>115983</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B12">
         <f>(8*D10-B10*C10)/SQRT((8*E10-B10^2)*(8*F10-C10^2))</f>
-        <v>0.74120916984356178</v>
+        <v>0.75460098090264371</v>
       </c>
     </row>
   </sheetData>

--- a/HW4/Lines to Seconds stats.xlsx
+++ b/HW4/Lines to Seconds stats.xlsx
@@ -197,7 +197,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1592</c:v>
+                  <c:v>2535</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>897</c:v>
@@ -230,7 +230,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>166</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>237</c:v>
@@ -296,7 +296,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1592</c:v>
+                  <c:v>2535</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>897</c:v>
@@ -329,28 +329,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>205.81522640233038</c:v>
+                  <c:v>275.00233775586145</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>131.95595884158342</c:v>
+                  <c:v>126.77562027830874</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71.274459881602851</c:v>
+                  <c:v>75.104401914644143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.580931476708358</c:v>
+                  <c:v>50.671426506256324</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>135.88803495632823</c:v>
+                  <c:v>130.12384283427298</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69.255285660517686</c:v>
+                  <c:v>73.385044385905729</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57.671601971134351</c:v>
+                  <c:v>63.521361721038062</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84.558500809794751</c:v>
+                  <c:v>86.415964603712567</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1394,7 +1394,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1415,34 +1415,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1592</v>
+        <v>2535</v>
       </c>
       <c r="C2">
-        <v>166</v>
+        <v>248</v>
       </c>
       <c r="D2">
         <f>B2*C2</f>
-        <v>264272</v>
+        <v>628680</v>
       </c>
       <c r="E2">
         <f>B2^2</f>
-        <v>2534464</v>
+        <v>6426225</v>
       </c>
       <c r="F2">
         <f>C2^2</f>
-        <v>27556</v>
+        <v>61504</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G7" si="0">G3</f>
-        <v>36.62968114087839</v>
+        <v>45.603846421553669</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H7" si="1">H3</f>
-        <v>0.10627232742553516</v>
+        <v>9.0492501512547452E-2</v>
       </c>
       <c r="I2">
         <f>G2+H2*B2</f>
-        <v>205.81522640233038</v>
+        <v>275.00233775586145</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1469,15 +1469,15 @@
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>36.62968114087839</v>
+        <v>45.603846421553669</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>0.10627232742553516</v>
+        <v>9.0492501512547452E-2</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I9" si="5">G3+H3*B3</f>
-        <v>131.95595884158342</v>
+        <v>126.77562027830874</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1504,15 +1504,15 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>36.62968114087839</v>
+        <v>45.603846421553669</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>0.10627232742553516</v>
+        <v>9.0492501512547452E-2</v>
       </c>
       <c r="I4">
         <f t="shared" si="5"/>
-        <v>71.274459881602851</v>
+        <v>75.104401914644143</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1539,15 +1539,15 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>36.62968114087839</v>
+        <v>45.603846421553669</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>0.10627232742553516</v>
+        <v>9.0492501512547452E-2</v>
       </c>
       <c r="I5">
         <f t="shared" si="5"/>
-        <v>42.580931476708358</v>
+        <v>50.671426506256324</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1574,15 +1574,15 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>36.62968114087839</v>
+        <v>45.603846421553669</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>0.10627232742553516</v>
+        <v>9.0492501512547452E-2</v>
       </c>
       <c r="I6">
         <f t="shared" si="5"/>
-        <v>135.88803495632823</v>
+        <v>130.12384283427298</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1609,15 +1609,15 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>36.62968114087839</v>
+        <v>45.603846421553669</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>0.10627232742553516</v>
+        <v>9.0492501512547452E-2</v>
       </c>
       <c r="I7">
         <f t="shared" si="5"/>
-        <v>69.255285660517686</v>
+        <v>73.385044385905729</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1644,15 +1644,15 @@
       </c>
       <c r="G8">
         <f>G9</f>
-        <v>36.62968114087839</v>
+        <v>45.603846421553669</v>
       </c>
       <c r="H8">
         <f>H9</f>
-        <v>0.10627232742553516</v>
+        <v>9.0492501512547452E-2</v>
       </c>
       <c r="I8">
         <f t="shared" si="5"/>
-        <v>57.671601971134351</v>
+        <v>63.521361721038062</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1679,15 +1679,15 @@
       </c>
       <c r="G9">
         <f>C10/8-H9*B10/8</f>
-        <v>36.62968114087839</v>
+        <v>45.603846421553669</v>
       </c>
       <c r="H9">
         <f>(8*D10-B10*C10)/(8*E10-B10^2)</f>
-        <v>0.10627232742553516</v>
+        <v>9.0492501512547452E-2</v>
       </c>
       <c r="I9">
         <f t="shared" si="5"/>
-        <v>84.558500809794751</v>
+        <v>86.415964603712567</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1696,23 +1696,23 @@
       </c>
       <c r="B10">
         <f>SUM(B2:B9)</f>
-        <v>4761</v>
+        <v>5704</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:F10" si="6">SUM(C2:C9)</f>
-        <v>799</v>
+        <v>881</v>
       </c>
       <c r="D10">
         <f t="shared" si="6"/>
-        <v>669378</v>
+        <v>1033786</v>
       </c>
       <c r="E10">
         <f t="shared" si="6"/>
-        <v>4657695</v>
+        <v>8549456</v>
       </c>
       <c r="F10">
         <f t="shared" si="6"/>
-        <v>115983</v>
+        <v>149931</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B12">
         <f>(8*D10-B10*C10)/SQRT((8*E10-B10^2)*(8*F10-C10^2))</f>
-        <v>0.75460098090264371</v>
+        <v>0.83291458078173075</v>
       </c>
     </row>
   </sheetData>

--- a/HW4/Lines to Seconds stats.xlsx
+++ b/HW4/Lines to Seconds stats.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Bohemian Rhapsody</t>
   </si>
@@ -60,6 +61,9 @@
   </si>
   <si>
     <t>correlation coefficient</t>
+  </si>
+  <si>
+    <t>Again</t>
   </si>
 </sst>
 </file>
@@ -101,8 +105,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -192,32 +224,35 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:f>Sheet1!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>757</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2535</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>897</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>326</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>934</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>307</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>198</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>451</c:v>
                 </c:pt>
               </c:numCache>
@@ -225,32 +260,35 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$9</c:f>
+              <c:f>Sheet1!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>248</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>237</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>114</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>95</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
@@ -291,32 +329,35 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:f>Sheet1!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>757</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2535</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>897</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>326</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>934</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>307</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>198</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>451</c:v>
                 </c:pt>
               </c:numCache>
@@ -324,33 +365,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$9</c:f>
+              <c:f>Sheet1!$I$2:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>275.00233775586145</c:v>
+                  <c:v>109.76133843290425</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>126.77562027830874</c:v>
+                  <c:v>281.07147152878679</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75.104401914644143</c:v>
+                  <c:v>123.25032529084775</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50.671426506256324</c:v>
+                  <c:v>68.234528891663871</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>130.12384283427298</c:v>
+                  <c:v>42.220054237058541</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>73.385044385905729</c:v>
+                  <c:v>126.81527181758997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>63.521361721038062</c:v>
+                  <c:v>66.403880675228692</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>86.415964603712567</c:v>
+                  <c:v>55.901740907258386</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.278267157684866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -365,11 +409,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="512715720"/>
-        <c:axId val="512712976"/>
+        <c:axId val="367073880"/>
+        <c:axId val="367072312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="512715720"/>
+        <c:axId val="367073880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -426,12 +470,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512712976"/>
+        <c:crossAx val="367072312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="512712976"/>
+        <c:axId val="367072312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -488,7 +532,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512715720"/>
+        <c:crossAx val="367073880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1394,7 +1438,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,305 +1456,340 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>2535</v>
+        <v>757</v>
       </c>
       <c r="C2">
-        <v>248</v>
+        <v>95</v>
       </c>
       <c r="D2">
         <f>B2*C2</f>
-        <v>628680</v>
+        <v>71915</v>
       </c>
       <c r="E2">
         <f>B2^2</f>
-        <v>6426225</v>
+        <v>573049</v>
       </c>
       <c r="F2">
         <f>C2^2</f>
-        <v>61504</v>
+        <v>9025</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G7" si="0">G3</f>
-        <v>45.603846421553669</v>
+        <f t="shared" ref="G2:G8" si="0">G3</f>
+        <v>36.824459493881136</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H7" si="1">H3</f>
-        <v>9.0492501512547452E-2</v>
+        <f t="shared" ref="H2:H8" si="1">H3</f>
+        <v>9.634990612816792E-2</v>
       </c>
       <c r="I2">
         <f>G2+H2*B2</f>
-        <v>275.00233775586145</v>
+        <v>109.76133843290425</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>897</v>
+        <v>2535</v>
       </c>
       <c r="C3">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D9" si="2">B3*C3</f>
-        <v>212589</v>
+        <f>B3*C3</f>
+        <v>628680</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E9" si="3">B3^2</f>
-        <v>804609</v>
+        <f>B3^2</f>
+        <v>6426225</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F9" si="4">C3^2</f>
-        <v>56169</v>
+        <f>C3^2</f>
+        <v>61504</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>45.603846421553669</v>
+        <v>36.824459493881136</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>9.0492501512547452E-2</v>
+        <v>9.634990612816792E-2</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I9" si="5">G3+H3*B3</f>
-        <v>126.77562027830874</v>
+        <f>G3+H3*B3</f>
+        <v>281.07147152878679</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>326</v>
+        <v>897</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>237</v>
       </c>
       <c r="D4">
-        <f t="shared" si="2"/>
-        <v>12388</v>
+        <f t="shared" ref="D4:D10" si="2">B4*C4</f>
+        <v>212589</v>
       </c>
       <c r="E4">
-        <f t="shared" si="3"/>
-        <v>106276</v>
+        <f t="shared" ref="E4:E10" si="3">B4^2</f>
+        <v>804609</v>
       </c>
       <c r="F4">
-        <f t="shared" si="4"/>
-        <v>1444</v>
+        <f t="shared" ref="F4:F10" si="4">C4^2</f>
+        <v>56169</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>45.603846421553669</v>
+        <v>36.824459493881136</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>9.0492501512547452E-2</v>
+        <v>9.634990612816792E-2</v>
       </c>
       <c r="I4">
-        <f t="shared" si="5"/>
-        <v>75.104401914644143</v>
+        <f t="shared" ref="I4:I10" si="5">G4+H4*B4</f>
+        <v>123.25032529084775</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>326</v>
       </c>
       <c r="C5">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5">
         <f t="shared" si="2"/>
-        <v>2072</v>
+        <v>12388</v>
       </c>
       <c r="E5">
         <f t="shared" si="3"/>
-        <v>3136</v>
+        <v>106276</v>
       </c>
       <c r="F5">
         <f t="shared" si="4"/>
-        <v>1369</v>
+        <v>1444</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>45.603846421553669</v>
+        <v>36.824459493881136</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>9.0492501512547452E-2</v>
+        <v>9.634990612816792E-2</v>
       </c>
       <c r="I5">
         <f t="shared" si="5"/>
-        <v>50.671426506256324</v>
+        <v>68.234528891663871</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>934</v>
+        <v>56</v>
       </c>
       <c r="C6">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="D6">
         <f t="shared" si="2"/>
-        <v>106476</v>
+        <v>2072</v>
       </c>
       <c r="E6">
         <f t="shared" si="3"/>
-        <v>872356</v>
+        <v>3136</v>
       </c>
       <c r="F6">
         <f t="shared" si="4"/>
-        <v>12996</v>
+        <v>1369</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>45.603846421553669</v>
+        <v>36.824459493881136</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>9.0492501512547452E-2</v>
+        <v>9.634990612816792E-2</v>
       </c>
       <c r="I6">
         <f t="shared" si="5"/>
-        <v>130.12384283427298</v>
+        <v>42.220054237058541</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>307</v>
+        <v>934</v>
       </c>
       <c r="C7">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
-        <v>29165</v>
+        <v>106476</v>
       </c>
       <c r="E7">
         <f t="shared" si="3"/>
-        <v>94249</v>
+        <v>872356</v>
       </c>
       <c r="F7">
         <f t="shared" si="4"/>
-        <v>9025</v>
+        <v>12996</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>45.603846421553669</v>
+        <v>36.824459493881136</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>9.0492501512547452E-2</v>
+        <v>9.634990612816792E-2</v>
       </c>
       <c r="I7">
         <f t="shared" si="5"/>
-        <v>73.385044385905729</v>
+        <v>126.81527181758997</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>198</v>
+        <v>307</v>
       </c>
       <c r="C8">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>6336</v>
+        <v>29165</v>
       </c>
       <c r="E8">
         <f t="shared" si="3"/>
-        <v>39204</v>
+        <v>94249</v>
       </c>
       <c r="F8">
         <f t="shared" si="4"/>
-        <v>1024</v>
+        <v>9025</v>
       </c>
       <c r="G8">
-        <f>G9</f>
-        <v>45.603846421553669</v>
+        <f t="shared" si="0"/>
+        <v>36.824459493881136</v>
       </c>
       <c r="H8">
-        <f>H9</f>
-        <v>9.0492501512547452E-2</v>
+        <f t="shared" si="1"/>
+        <v>9.634990612816792E-2</v>
       </c>
       <c r="I8">
         <f t="shared" si="5"/>
-        <v>63.521361721038062</v>
+        <v>66.403880675228692</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>451</v>
+        <v>198</v>
       </c>
       <c r="C9">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <f t="shared" si="2"/>
-        <v>36080</v>
+        <v>6336</v>
       </c>
       <c r="E9">
         <f t="shared" si="3"/>
-        <v>203401</v>
+        <v>39204</v>
       </c>
       <c r="F9">
         <f t="shared" si="4"/>
-        <v>6400</v>
+        <v>1024</v>
       </c>
       <c r="G9">
-        <f>C10/8-H9*B10/8</f>
-        <v>45.603846421553669</v>
+        <f>G10</f>
+        <v>36.824459493881136</v>
       </c>
       <c r="H9">
-        <f>(8*D10-B10*C10)/(8*E10-B10^2)</f>
-        <v>9.0492501512547452E-2</v>
+        <f>H10</f>
+        <v>9.634990612816792E-2</v>
       </c>
       <c r="I9">
         <f t="shared" si="5"/>
-        <v>86.415964603712567</v>
+        <v>55.901740907258386</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>451</v>
+      </c>
+      <c r="C10">
+        <v>80</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>36080</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>203401</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>6400</v>
+      </c>
+      <c r="G10">
+        <f>C11/9-H10*B11/9</f>
+        <v>36.824459493881136</v>
+      </c>
+      <c r="H10">
+        <f>(9*D11-B11*C11)/(9*E11-B11^2)</f>
+        <v>9.634990612816792E-2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="5"/>
+        <v>80.278267157684866</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="B10">
-        <f>SUM(B2:B9)</f>
+      <c r="B11">
+        <f>SUM(B3:B10)</f>
         <v>5704</v>
       </c>
-      <c r="C10">
-        <f t="shared" ref="C10:F10" si="6">SUM(C2:C9)</f>
+      <c r="C11">
+        <f t="shared" ref="C11:F11" si="6">SUM(C3:C10)</f>
         <v>881</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <f t="shared" si="6"/>
         <v>1033786</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <f t="shared" si="6"/>
         <v>8549456</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <f t="shared" si="6"/>
         <v>149931</v>
       </c>
@@ -1720,8 +1799,8 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <f>(8*D10-B10*C10)/SQRT((8*E10-B10^2)*(8*F10-C10^2))</f>
-        <v>0.83291458078173075</v>
+        <f>(9*D11-B11*C11)/SQRT((9*E11-B11^2)*(9*F11-C11^2))</f>
+        <v>0.84806525218795814</v>
       </c>
     </row>
   </sheetData>
